--- a/Project Outputs for Octopus/ГИДР.123456.006-02.01/Документация/ГИДР.123456.006-02.01 ПЭ3.xlsx
+++ b/Project Outputs for Octopus/ГИДР.123456.006-02.01/Документация/ГИДР.123456.006-02.01 ПЭ3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\TempReleases\Snapshot\1\Assembly 01\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BE57C54-43BF-45B1-B079-1DC2F21F9629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4221E4C0-D1C8-4318-9B93-FA63E692AC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{C591F8F2-B8BF-4E5A-891D-3138674F3802}"/>
+    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{2D352F7E-5E2C-4334-84B5-5158416AB56F}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.006-02.01 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6173CD-29F2-4B15-A2E3-68EBF753D01E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C779E2CC-41CE-41A5-B0FA-6AFA2F9E2CBB}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for Octopus/ГИДР.123456.006-02.01/Документация/ГИДР.123456.006-02.01 ПЭ3.xlsx
+++ b/Project Outputs for Octopus/ГИДР.123456.006-02.01/Документация/ГИДР.123456.006-02.01 ПЭ3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\TempReleases\Snapshot\1\Assembly 01\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4221E4C0-D1C8-4318-9B93-FA63E692AC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EAB7B74-70CF-42F1-8CAE-1FBA9B2E2074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{2D352F7E-5E2C-4334-84B5-5158416AB56F}"/>
+    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{04386EC1-3A14-4EF0-8141-AA300FE88AF3}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.006-02.01 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C779E2CC-41CE-41A5-B0FA-6AFA2F9E2CBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D42EEA-2729-42F1-821F-D4898DD38DE6}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for Octopus/ГИДР.123456.006-02.01/Документация/ГИДР.123456.006-02.01 ПЭ3.xlsx
+++ b/Project Outputs for Octopus/ГИДР.123456.006-02.01/Документация/ГИДР.123456.006-02.01 ПЭ3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\TempReleases\Snapshot\1\Assembly 01\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EAB7B74-70CF-42F1-8CAE-1FBA9B2E2074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3353CDBC-5EBA-4911-9319-A876A2000043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{04386EC1-3A14-4EF0-8141-AA300FE88AF3}"/>
+    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{ECA8E8E4-11E8-4573-BAEF-AC0C8F0CDBC2}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.006-02.01 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D42EEA-2729-42F1-821F-D4898DD38DE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91EFEFB-DF37-41FD-948C-B11269BDFB0E}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for Octopus/ГИДР.123456.006-02.01/Документация/ГИДР.123456.006-02.01 ПЭ3.xlsx
+++ b/Project Outputs for Octopus/ГИДР.123456.006-02.01/Документация/ГИДР.123456.006-02.01 ПЭ3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\TempReleases\Snapshot\1\Assembly 01\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3353CDBC-5EBA-4911-9319-A876A2000043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71D7934F-DCFB-4DAA-B6A2-BDF43F55B794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{ECA8E8E4-11E8-4573-BAEF-AC0C8F0CDBC2}"/>
+    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{429E6A3D-65F8-4251-8981-1BD926F07444}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.006-02.01 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91EFEFB-DF37-41FD-948C-B11269BDFB0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F8E98A-68E3-450F-9F8F-E1B349D585CD}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for Octopus/ГИДР.123456.006-02.01/Документация/ГИДР.123456.006-02.01 ПЭ3.xlsx
+++ b/Project Outputs for Octopus/ГИДР.123456.006-02.01/Документация/ГИДР.123456.006-02.01 ПЭ3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\TempReleases\Snapshot\1\Assembly 01\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71D7934F-DCFB-4DAA-B6A2-BDF43F55B794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4CA9517-ABB0-474F-BDC2-B876D3D46B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{429E6A3D-65F8-4251-8981-1BD926F07444}"/>
+    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{40BC8C0A-132F-4E9C-A99D-A332DEC303F9}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.006-02.01 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F8E98A-68E3-450F-9F8F-E1B349D585CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E350368F-6E5E-43B5-A412-117B58A5010F}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for Octopus/ГИДР.123456.006-02.01/Документация/ГИДР.123456.006-02.01 ПЭ3.xlsx
+++ b/Project Outputs for Octopus/ГИДР.123456.006-02.01/Документация/ГИДР.123456.006-02.01 ПЭ3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\TempReleases\Snapshot\1\Assembly 01\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4CA9517-ABB0-474F-BDC2-B876D3D46B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90AE21E5-0C4A-4959-A0C9-8AEA4BC9AAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{40BC8C0A-132F-4E9C-A99D-A332DEC303F9}"/>
+    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{1D92FBA4-155E-4877-8CE5-8DB16027F304}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.006-02.01 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E350368F-6E5E-43B5-A412-117B58A5010F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84325C12-DF7A-41AC-A25A-56308494CC11}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for Octopus/ГИДР.123456.006-02.01/Документация/ГИДР.123456.006-02.01 ПЭ3.xlsx
+++ b/Project Outputs for Octopus/ГИДР.123456.006-02.01/Документация/ГИДР.123456.006-02.01 ПЭ3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\TempReleases\Snapshot\1\Assembly 01\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90AE21E5-0C4A-4959-A0C9-8AEA4BC9AAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA336136-F3AE-4962-8788-CE709BC83BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{1D92FBA4-155E-4877-8CE5-8DB16027F304}"/>
+    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{560FA557-271D-437D-8850-473C3392B902}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.006-02.01 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84325C12-DF7A-41AC-A25A-56308494CC11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE50BDB-43B5-4E0C-A61E-5F67C3675501}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
